--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Elementary_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Elementary_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -986,9 +986,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1106,6 +1103,9 @@
 - Title is centered
 - All items is left-aligned
 - Text's color is black</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3120,6 +3120,27 @@
     <xf numFmtId="0" fontId="63" fillId="36" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3138,56 +3159,35 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="28" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="43" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="28" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="29" borderId="43" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6435,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6455,14 +6455,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6477,12 +6477,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6494,12 +6494,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6508,28 +6508,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="C6" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6552,10 +6552,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="111"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6571,12 +6571,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6585,13 +6585,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6599,8 +6599,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6608,8 +6608,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6617,8 +6617,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6626,8 +6626,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6635,8 +6635,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6644,12 +6644,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6657,6 +6651,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6672,7 +6672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -6736,56 +6736,56 @@
       <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="126" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="127"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
     </row>
     <row r="6" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="41"/>
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6866,7 +6866,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
@@ -6894,20 +6894,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="54">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -6922,7 +6922,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -6949,7 +6949,7 @@
       <c r="C13" s="100"/>
       <c r="D13" s="101"/>
       <c r="E13" s="102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="102"/>
       <c r="G13" s="102"/>
@@ -6968,7 +6968,7 @@
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
       <c r="F14" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -6987,7 +6987,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6999,10 +6999,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>143</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -7014,7 +7014,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -7033,7 +7033,7 @@
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -7045,41 +7045,41 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="56" t="s">
         <v>147</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="63"/>
-      <c r="F18" s="118" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
+      <c r="F18" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="63"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -7091,41 +7091,41 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="56" t="s">
         <v>153</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
+      <c r="F20" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="63"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>35</v>
@@ -7137,10 +7137,10 @@
         <v>37</v>
       </c>
       <c r="K21" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="56" t="s">
         <v>159</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
@@ -7148,46 +7148,46 @@
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="126"/>
+      <c r="E22" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
-      <c r="F23" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="123"/>
+      <c r="F23" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="122"/>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="63"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>35</v>
@@ -7199,10 +7199,10 @@
         <v>37</v>
       </c>
       <c r="K24" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="56" t="s">
         <v>168</v>
-      </c>
-      <c r="L24" s="56" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1">
@@ -8265,6 +8265,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="F23:L23"/>
@@ -8276,11 +8281,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I83 I52 I80 I77 I71 I86">
@@ -8317,7 +8317,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
